--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H2">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I2">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J2">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.720171333333333</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N2">
-        <v>5.160513999999999</v>
+        <v>9.060001</v>
       </c>
       <c r="O2">
-        <v>0.1961456356393658</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P2">
-        <v>0.1961456356393657</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q2">
-        <v>0.04014650535822221</v>
+        <v>0.2200150776175555</v>
       </c>
       <c r="R2">
-        <v>0.3613185482239999</v>
+        <v>1.980135698558</v>
       </c>
       <c r="S2">
-        <v>0.004379349291892942</v>
+        <v>0.0162789639576685</v>
       </c>
       <c r="T2">
-        <v>0.004379349291892941</v>
+        <v>0.0162789639576685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H3">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I3">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J3">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q3">
-        <v>0.0951374762951111</v>
+        <v>0.2969757847364444</v>
       </c>
       <c r="R3">
-        <v>0.8562372866559999</v>
+        <v>2.672782062628</v>
       </c>
       <c r="S3">
-        <v>0.01037799518856867</v>
+        <v>0.02197330359525844</v>
       </c>
       <c r="T3">
-        <v>0.01037799518856866</v>
+        <v>0.02197330359525844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H4">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I4">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J4">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.973308</v>
+        <v>3.229698</v>
       </c>
       <c r="N4">
-        <v>8.919924</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O4">
-        <v>0.3390368019222182</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P4">
-        <v>0.3390368019222182</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q4">
-        <v>0.06939304430933332</v>
+        <v>0.235292111828</v>
       </c>
       <c r="R4">
-        <v>0.6245373987839999</v>
+        <v>2.117629006452</v>
       </c>
       <c r="S4">
-        <v>0.007569684502965955</v>
+        <v>0.01740931507716855</v>
       </c>
       <c r="T4">
-        <v>0.007569684502965955</v>
+        <v>0.01740931507716855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5726236666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H5">
-        <v>1.717871</v>
+        <v>0.218558</v>
       </c>
       <c r="I5">
-        <v>0.5478027251883811</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J5">
-        <v>0.547802725188381</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.720171333333333</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N5">
-        <v>5.160513999999999</v>
+        <v>0.104303</v>
       </c>
       <c r="O5">
-        <v>0.1961456356393658</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P5">
-        <v>0.1961456356393657</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q5">
-        <v>0.9850108161882221</v>
+        <v>0.002532917230444444</v>
       </c>
       <c r="R5">
-        <v>8.865097345693998</v>
+        <v>0.022796255074</v>
       </c>
       <c r="S5">
-        <v>0.1074491137370518</v>
+        <v>0.0001874111026783217</v>
       </c>
       <c r="T5">
-        <v>0.1074491137370518</v>
+        <v>0.0001874111026783217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>1.717871</v>
       </c>
       <c r="I6">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J6">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076388666666666</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N6">
-        <v>12.229166</v>
+        <v>9.060001</v>
       </c>
       <c r="O6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q6">
-        <v>2.334236625065111</v>
+        <v>1.729323664207889</v>
       </c>
       <c r="R6">
-        <v>21.008129625586</v>
+        <v>15.563912977871</v>
       </c>
       <c r="S6">
-        <v>0.2546283274191848</v>
+        <v>0.1279530380627748</v>
       </c>
       <c r="T6">
-        <v>0.2546283274191847</v>
+        <v>0.1279530380627748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>1.717871</v>
       </c>
       <c r="I7">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J7">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.973308</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N7">
-        <v>8.919924</v>
+        <v>12.229166</v>
       </c>
       <c r="O7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q7">
-        <v>1.702586529089333</v>
+        <v>2.334236625065111</v>
       </c>
       <c r="R7">
-        <v>15.323278761804</v>
+        <v>21.008129625586</v>
       </c>
       <c r="S7">
-        <v>0.1857252840321445</v>
+        <v>0.172710681011403</v>
       </c>
       <c r="T7">
-        <v>0.1857252840321445</v>
+        <v>0.172710681011403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.432615</v>
+        <v>0.5726236666666666</v>
       </c>
       <c r="H8">
-        <v>1.297845</v>
+        <v>1.717871</v>
       </c>
       <c r="I8">
-        <v>0.4138628732146444</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J8">
-        <v>0.4138628732146444</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.720171333333333</v>
+        <v>3.229698</v>
       </c>
       <c r="N8">
-        <v>5.160513999999999</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O8">
-        <v>0.1961456356393658</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P8">
-        <v>0.1961456356393657</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q8">
-        <v>0.7441719213699999</v>
+        <v>1.849401510986</v>
       </c>
       <c r="R8">
-        <v>6.697547292329999</v>
+        <v>16.644613598874</v>
       </c>
       <c r="S8">
-        <v>0.08117739633422068</v>
+        <v>0.1368376243419624</v>
       </c>
       <c r="T8">
-        <v>0.08117739633422066</v>
+        <v>0.1368376243419624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.432615</v>
+        <v>0.5726236666666666</v>
       </c>
       <c r="H9">
-        <v>1.297845</v>
+        <v>1.717871</v>
       </c>
       <c r="I9">
-        <v>0.4138628732146444</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J9">
-        <v>0.4138628732146444</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.076388666666666</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N9">
-        <v>12.229166</v>
+        <v>0.104303</v>
       </c>
       <c r="O9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q9">
-        <v>1.76350688303</v>
+        <v>0.01990878876811111</v>
       </c>
       <c r="R9">
-        <v>15.87156194727</v>
+        <v>0.179179098913</v>
       </c>
       <c r="S9">
-        <v>0.1923707319113903</v>
+        <v>0.0014730556573958</v>
       </c>
       <c r="T9">
-        <v>0.1923707319113902</v>
+        <v>0.0014730556573958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H10">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I10">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J10">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.973308</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N10">
-        <v>8.919924</v>
+        <v>9.060001</v>
       </c>
       <c r="O10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q10">
-        <v>1.28629764042</v>
+        <v>1.794629158082667</v>
       </c>
       <c r="R10">
-        <v>11.57667876378</v>
+        <v>16.151662422744</v>
       </c>
       <c r="S10">
-        <v>0.1403147449690335</v>
+        <v>0.1327850059103294</v>
       </c>
       <c r="T10">
-        <v>0.1403147449690335</v>
+        <v>0.1327850059103294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01673266666666667</v>
+        <v>0.594248</v>
       </c>
       <c r="H11">
-        <v>0.050198</v>
+        <v>1.782744</v>
       </c>
       <c r="I11">
-        <v>0.01600737261354686</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J11">
-        <v>0.01600737261354686</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.720171333333333</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N11">
-        <v>5.160513999999999</v>
+        <v>12.229166</v>
       </c>
       <c r="O11">
-        <v>0.1961456356393658</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P11">
-        <v>0.1961456356393657</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q11">
-        <v>0.02878305353022222</v>
+        <v>2.422385812389333</v>
       </c>
       <c r="R11">
-        <v>0.2590474817719999</v>
+        <v>21.801472311504</v>
       </c>
       <c r="S11">
-        <v>0.003139776276200324</v>
+        <v>0.1792328587588897</v>
       </c>
       <c r="T11">
-        <v>0.003139776276200324</v>
+        <v>0.1792328587588897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01673266666666667</v>
+        <v>0.594248</v>
       </c>
       <c r="H12">
-        <v>0.050198</v>
+        <v>1.782744</v>
       </c>
       <c r="I12">
-        <v>0.01600737261354686</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J12">
-        <v>0.01600737261354686</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076388666666666</v>
+        <v>3.229698</v>
       </c>
       <c r="N12">
-        <v>12.229166</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O12">
-        <v>0.464817562438416</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P12">
-        <v>0.464817562438416</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q12">
-        <v>0.0682088527631111</v>
+        <v>1.919241577104</v>
       </c>
       <c r="R12">
-        <v>0.613879674868</v>
+        <v>17.273174193936</v>
       </c>
       <c r="S12">
-        <v>0.007440507919272307</v>
+        <v>0.1420051061866039</v>
       </c>
       <c r="T12">
-        <v>0.007440507919272307</v>
+        <v>0.1420051061866039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.594248</v>
+      </c>
+      <c r="H13">
+        <v>1.782744</v>
+      </c>
+      <c r="I13">
+        <v>0.4555516544035914</v>
+      </c>
+      <c r="J13">
+        <v>0.4555516544035914</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.104303</v>
+      </c>
+      <c r="O13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q13">
+        <v>0.02066061638133334</v>
+      </c>
+      <c r="R13">
+        <v>0.185945547432</v>
+      </c>
+      <c r="S13">
+        <v>0.001528683547768382</v>
+      </c>
+      <c r="T13">
+        <v>0.001528683547768382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.06473366666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.194201</v>
+      </c>
+      <c r="I14">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="J14">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.020000333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.060001</v>
+      </c>
+      <c r="O14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="P14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="Q14">
+        <v>0.1954956949112223</v>
+      </c>
+      <c r="R14">
+        <v>1.759461254201</v>
+      </c>
+      <c r="S14">
+        <v>0.01446476944126127</v>
+      </c>
+      <c r="T14">
+        <v>0.01446476944126127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.06473366666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.194201</v>
+      </c>
+      <c r="I15">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="J15">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N15">
+        <v>12.229166</v>
+      </c>
+      <c r="O15">
+        <v>0.3934413518781783</v>
+      </c>
+      <c r="P15">
+        <v>0.3934413518781784</v>
+      </c>
+      <c r="Q15">
+        <v>0.2638795851517778</v>
+      </c>
+      <c r="R15">
+        <v>2.374916266366</v>
+      </c>
+      <c r="S15">
+        <v>0.01952450851262724</v>
+      </c>
+      <c r="T15">
+        <v>0.01952450851262724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.01673266666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.050198</v>
-      </c>
-      <c r="I13">
-        <v>0.01600737261354686</v>
-      </c>
-      <c r="J13">
-        <v>0.01600737261354686</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.973308</v>
-      </c>
-      <c r="N13">
-        <v>8.919924</v>
-      </c>
-      <c r="O13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="P13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="Q13">
-        <v>0.04975137166133333</v>
-      </c>
-      <c r="R13">
-        <v>0.447762344952</v>
-      </c>
-      <c r="S13">
-        <v>0.005427088418074227</v>
-      </c>
-      <c r="T13">
-        <v>0.005427088418074226</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.06473366666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.194201</v>
+      </c>
+      <c r="I16">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="J16">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.229698</v>
+      </c>
+      <c r="N16">
+        <v>9.689094000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.311721195201271</v>
+      </c>
+      <c r="P16">
+        <v>0.3117211952012711</v>
+      </c>
+      <c r="Q16">
+        <v>0.2090701937660001</v>
+      </c>
+      <c r="R16">
+        <v>1.881631743894</v>
+      </c>
+      <c r="S16">
+        <v>0.01546914959553624</v>
+      </c>
+      <c r="T16">
+        <v>0.01546914959553624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.06473366666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.194201</v>
+      </c>
+      <c r="I17">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="J17">
+        <v>0.04962495279009878</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.104303</v>
+      </c>
+      <c r="O17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q17">
+        <v>0.002250638544777778</v>
+      </c>
+      <c r="R17">
+        <v>0.020255746903</v>
+      </c>
+      <c r="S17">
+        <v>0.0001665252406740214</v>
+      </c>
+      <c r="T17">
+        <v>0.0001665252406740214</v>
       </c>
     </row>
   </sheetData>
